--- a/Ethernet_Board/Ethernet_Board - MDP/WDY_Ethernet_Board_Part_List.xlsx
+++ b/Ethernet_Board/Ethernet_Board - MDP/WDY_Ethernet_Board_Part_List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Ethernet_Board\Ethernet_Board - Fabrication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Ethernet_Board\Ethernet_Board - MDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Value</t>
   </si>
@@ -205,6 +205,39 @@
   </si>
   <si>
     <t>Part List</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>F931A475MAA</t>
+  </si>
+  <si>
+    <t>MC0603B104K250CT</t>
+  </si>
+  <si>
+    <t>F931A106MAA</t>
+  </si>
+  <si>
+    <t>22-05-7028</t>
+  </si>
+  <si>
+    <t>22-05-7068</t>
+  </si>
+  <si>
+    <t>MCMR06X2200FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X49R9FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X4701FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X2201FTL</t>
+  </si>
+  <si>
+    <t>ASE-50.000MHZ-LC-T</t>
   </si>
 </sst>
 </file>
@@ -255,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -277,11 +310,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -394,18 +433,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F14"/>
-  <sortState ref="A2:F14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G14"/>
+  <sortState ref="A2:G14">
     <sortCondition ref="E1:E14"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Qty" dataDxfId="5"/>
-    <tableColumn id="2" name="Value" dataDxfId="4"/>
-    <tableColumn id="3" name="Device" dataDxfId="3"/>
-    <tableColumn id="4" name="Package" dataDxfId="2"/>
-    <tableColumn id="5" name="Parts" dataDxfId="1"/>
-    <tableColumn id="6" name="Description" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Qty" dataDxfId="6"/>
+    <tableColumn id="2" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" name="Device" dataDxfId="4"/>
+    <tableColumn id="4" name="Package" dataDxfId="3"/>
+    <tableColumn id="5" name="Parts" dataDxfId="2"/>
+    <tableColumn id="6" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" name="MPN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +798,7 @@
       </c>
       <c r="B10" s="3">
         <f ca="1">TODAY()</f>
-        <v>42753</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,8 +822,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +833,7 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
@@ -828,7 +868,9 @@
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -853,7 +895,9 @@
       <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -878,7 +922,9 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -903,7 +949,9 @@
       <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -928,7 +976,9 @@
       <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -953,7 +1003,9 @@
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -978,7 +1030,9 @@
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1003,7 +1057,9 @@
       <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1028,7 +1084,9 @@
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1053,7 +1111,9 @@
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1078,7 +1138,9 @@
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1103,7 +1165,9 @@
       <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1128,7 +1192,9 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1153,7 +1219,9 @@
       <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1214,7 +1282,6 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
